--- a/Code/Results/Cases/Case_7_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_7/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.448302998296754</v>
+        <v>3.448302998296811</v>
       </c>
       <c r="C2">
-        <v>0.9029792202543376</v>
+        <v>0.9029792202541103</v>
       </c>
       <c r="D2">
-        <v>0.02721432060388906</v>
+        <v>0.02721432060401696</v>
       </c>
       <c r="E2">
-        <v>0.05605249652796829</v>
+        <v>0.05605249652801803</v>
       </c>
       <c r="F2">
-        <v>6.726400190158358</v>
+        <v>6.726400190158387</v>
       </c>
       <c r="G2">
-        <v>0.0008003039932639014</v>
+        <v>0.0008003039932528319</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2896736897725134</v>
+        <v>0.2896736897724992</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.971933580995369</v>
+        <v>2.971933580995824</v>
       </c>
       <c r="C3">
         <v>0.7731251663113028</v>
       </c>
       <c r="D3">
-        <v>0.02290652906204826</v>
+        <v>0.02290652906184221</v>
       </c>
       <c r="E3">
-        <v>0.050230215387149</v>
+        <v>0.05023021538717032</v>
       </c>
       <c r="F3">
-        <v>5.980981341814868</v>
+        <v>5.980981341814839</v>
       </c>
       <c r="G3">
-        <v>0.0008131060406593171</v>
+        <v>0.0008131060406644938</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2560591008757171</v>
+        <v>0.256059100875774</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.688273371566538</v>
+        <v>2.688273371566879</v>
       </c>
       <c r="C4">
-        <v>0.6959207877530105</v>
+        <v>0.6959207877529252</v>
       </c>
       <c r="D4">
-        <v>0.02038357765540511</v>
+        <v>0.02038357765563958</v>
       </c>
       <c r="E4">
         <v>0.04682356227590745</v>
       </c>
       <c r="F4">
-        <v>5.538808353936645</v>
+        <v>5.538808353936702</v>
       </c>
       <c r="G4">
-        <v>0.0008211020245911831</v>
+        <v>0.0008211020246504814</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2361562406330648</v>
+        <v>0.2361562406331217</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>2.574581973521276</v>
       </c>
       <c r="C5">
-        <v>0.6649989549755446</v>
+        <v>0.6649989549758857</v>
       </c>
       <c r="D5">
-        <v>0.01938103737325036</v>
+        <v>0.01938103737332497</v>
       </c>
       <c r="E5">
-        <v>0.04547292519750457</v>
+        <v>0.04547292519751167</v>
       </c>
       <c r="F5">
-        <v>5.361966604665525</v>
+        <v>5.36196660466544</v>
       </c>
       <c r="G5">
-        <v>0.00082439915240148</v>
+        <v>0.0008243991525579186</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2282058723527456</v>
+        <v>0.2282058723526319</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.555809928391625</v>
+        <v>2.555809928391511</v>
       </c>
       <c r="C6">
-        <v>0.6598944268791911</v>
+        <v>0.6598944268786227</v>
       </c>
       <c r="D6">
-        <v>0.01921597419513077</v>
+        <v>0.01921597419477195</v>
       </c>
       <c r="E6">
-        <v>0.04525079754970207</v>
+        <v>0.04525079754974826</v>
       </c>
       <c r="F6">
-        <v>5.332789360388887</v>
+        <v>5.33278936038883</v>
       </c>
       <c r="G6">
-        <v>0.0008249491007783714</v>
+        <v>0.0008249491007590526</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2268947211476018</v>
+        <v>0.2268947211476728</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.686732779364206</v>
+        <v>2.68673277936432</v>
       </c>
       <c r="C7">
-        <v>0.6955016980893731</v>
+        <v>0.6955016980899416</v>
       </c>
       <c r="D7">
-        <v>0.02036995974770406</v>
+        <v>0.020369959747498</v>
       </c>
       <c r="E7">
-        <v>0.04680520065358351</v>
+        <v>0.0468052006536368</v>
       </c>
       <c r="F7">
         <v>5.536410536305681</v>
       </c>
       <c r="G7">
-        <v>0.0008211463285166137</v>
+        <v>0.0008211463285372234</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.236048401389354</v>
+        <v>0.2360484013893966</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.282012790167869</v>
+        <v>3.282012790167698</v>
       </c>
       <c r="C8">
-        <v>0.8576194665836283</v>
+        <v>0.8576194665841115</v>
       </c>
       <c r="D8">
-        <v>0.0257003740624242</v>
+        <v>0.02570037406264447</v>
       </c>
       <c r="E8">
-        <v>0.05400702242321032</v>
+        <v>0.05400702242320676</v>
       </c>
       <c r="F8">
-        <v>6.465803389734759</v>
+        <v>6.465803389734788</v>
       </c>
       <c r="G8">
-        <v>0.0008046929908987037</v>
+        <v>0.0008046929907470357</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.536332698958404</v>
+        <v>4.536332698958347</v>
       </c>
       <c r="C9">
-        <v>1.200684366356029</v>
+        <v>1.200684366356711</v>
       </c>
       <c r="D9">
-        <v>0.03739350218127413</v>
+        <v>0.03739350218128834</v>
       </c>
       <c r="E9">
-        <v>0.06971534763778919</v>
+        <v>0.06971534763782472</v>
       </c>
       <c r="F9">
         <v>8.440707384059323</v>
       </c>
       <c r="G9">
-        <v>0.0007732591543397735</v>
+        <v>0.0007732591543417375</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3671815133470062</v>
+        <v>0.3671815133470346</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.539446936683134</v>
+        <v>5.539446936682964</v>
       </c>
       <c r="C10">
-        <v>1.476752153905977</v>
+        <v>1.47675215390683</v>
       </c>
       <c r="D10">
-        <v>0.04720263424927396</v>
+        <v>0.04720263424910343</v>
       </c>
       <c r="E10">
-        <v>0.08264795761280297</v>
+        <v>0.08264795761272126</v>
       </c>
       <c r="F10">
-        <v>10.03367899497422</v>
+        <v>10.03367899497417</v>
       </c>
       <c r="G10">
-        <v>0.0007502626377943449</v>
+        <v>0.0007502626375769946</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4393644174027571</v>
+        <v>0.4393644174029987</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.021757004846563</v>
+        <v>6.021757004846904</v>
       </c>
       <c r="C11">
-        <v>1.610093925693207</v>
+        <v>1.610093925693718</v>
       </c>
       <c r="D11">
-        <v>0.05206483841546827</v>
+        <v>0.05206483841547538</v>
       </c>
       <c r="E11">
-        <v>0.08895713121204096</v>
+        <v>0.0889571312120232</v>
       </c>
       <c r="F11">
-        <v>10.80332075185049</v>
+        <v>10.80332075185044</v>
       </c>
       <c r="G11">
-        <v>0.0007397049687255249</v>
+        <v>0.0007397049686075572</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4742778080896528</v>
+        <v>0.4742778080897381</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.209020243982195</v>
+        <v>6.209020243982025</v>
       </c>
       <c r="C12">
-        <v>1.661977444805302</v>
+        <v>1.661977444805359</v>
       </c>
       <c r="D12">
-        <v>0.05397826454021981</v>
+        <v>0.05397826453995691</v>
       </c>
       <c r="E12">
-        <v>0.09142086229210022</v>
+        <v>0.09142086229214641</v>
       </c>
       <c r="F12">
         <v>11.10274585811283</v>
       </c>
       <c r="G12">
-        <v>0.0007356806587984143</v>
+        <v>0.0007356806587959024</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4878662628900798</v>
+        <v>0.4878662628900372</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.168467777077467</v>
+        <v>6.16846777707724</v>
       </c>
       <c r="C13">
         <v>1.650736491445514</v>
       </c>
       <c r="D13">
-        <v>0.0535626889910148</v>
+        <v>0.05356268899122796</v>
       </c>
       <c r="E13">
-        <v>0.09088669002325034</v>
+        <v>0.09088669002324679</v>
       </c>
       <c r="F13">
-        <v>11.03787663043317</v>
+        <v>11.03787663043323</v>
       </c>
       <c r="G13">
-        <v>0.0007365487680903726</v>
+        <v>0.0007365487680889034</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.484922129706149</v>
+        <v>0.4849221297061206</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.037064793684237</v>
+        <v>6.037064793684578</v>
       </c>
       <c r="C14">
-        <v>1.614332748418349</v>
+        <v>1.614332748418803</v>
       </c>
       <c r="D14">
-        <v>0.05222071275145623</v>
+        <v>0.05222071275147044</v>
       </c>
       <c r="E14">
-        <v>0.08915824143405615</v>
+        <v>0.0891582414340597</v>
       </c>
       <c r="F14">
-        <v>10.82778483984373</v>
+        <v>10.82778483984362</v>
       </c>
       <c r="G14">
-        <v>0.0007393744960038322</v>
+        <v>0.0007393744963467165</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.95720853326327</v>
+        <v>5.957208533263383</v>
       </c>
       <c r="C15">
-        <v>1.592224680830498</v>
+        <v>1.592224680830896</v>
       </c>
       <c r="D15">
-        <v>0.0514086152989961</v>
+        <v>0.05140861529923058</v>
       </c>
       <c r="E15">
-        <v>0.08810967879762543</v>
+        <v>0.08810967879758991</v>
       </c>
       <c r="F15">
-        <v>10.70018729268941</v>
+        <v>10.70018729268924</v>
       </c>
       <c r="G15">
-        <v>0.0007411014852578557</v>
+        <v>0.0007411014852645097</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4695981195129093</v>
+        <v>0.4695981195130088</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.508520981684001</v>
+        <v>5.50852098168383</v>
       </c>
       <c r="C16">
         <v>1.468216063059572</v>
       </c>
       <c r="D16">
-        <v>0.04689410477740097</v>
+        <v>0.04689410477787703</v>
       </c>
       <c r="E16">
-        <v>0.08224528121549923</v>
+        <v>0.08224528121541042</v>
       </c>
       <c r="F16">
-        <v>9.984407813678473</v>
+        <v>9.984407813678388</v>
       </c>
       <c r="G16">
-        <v>0.0007509496615668602</v>
+        <v>0.0007509496616923419</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.437130075298839</v>
+        <v>0.4371300752986826</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.240491462601256</v>
+        <v>5.240491462601085</v>
       </c>
       <c r="C17">
-        <v>1.394303485948114</v>
+        <v>1.394303485948456</v>
       </c>
       <c r="D17">
-        <v>0.04423645554101796</v>
+        <v>0.0442364555411956</v>
       </c>
       <c r="E17">
-        <v>0.07876533971025879</v>
+        <v>0.07876533971024102</v>
       </c>
       <c r="F17">
-        <v>9.557795263728252</v>
+        <v>9.557795263728337</v>
       </c>
       <c r="G17">
-        <v>0.0007569584597555627</v>
+        <v>0.0007569584598579252</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4177882516645894</v>
+        <v>0.41778825166449</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.088710880755514</v>
+        <v>5.088710880755059</v>
       </c>
       <c r="C18">
-        <v>1.352501393199873</v>
+        <v>1.352501393199816</v>
       </c>
       <c r="D18">
-        <v>0.0427444390032008</v>
+        <v>0.04274443900360581</v>
       </c>
       <c r="E18">
-        <v>0.07680292013193935</v>
+        <v>0.07680292013203882</v>
       </c>
       <c r="F18">
-        <v>9.316546310630883</v>
+        <v>9.31654631063094</v>
       </c>
       <c r="G18">
-        <v>0.0007604063732424134</v>
+        <v>0.0007604063733446242</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4068539367830084</v>
+        <v>0.4068539367831505</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>5.03770602630982</v>
       </c>
       <c r="C19">
-        <v>1.338462593438749</v>
+        <v>1.33846259343909</v>
       </c>
       <c r="D19">
-        <v>0.04224515939781526</v>
+        <v>0.04224515939750972</v>
       </c>
       <c r="E19">
-        <v>0.07614484515372055</v>
+        <v>0.07614484515375963</v>
       </c>
       <c r="F19">
-        <v>9.235531762993674</v>
+        <v>9.235531762993901</v>
       </c>
       <c r="G19">
-        <v>0.0007615727077271387</v>
+        <v>0.000761572707489222</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4031826464716488</v>
+        <v>0.4031826464713362</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.268771258255015</v>
+        <v>5.268771258255128</v>
       </c>
       <c r="C20">
-        <v>1.402096289715928</v>
+        <v>1.402096289716383</v>
       </c>
       <c r="D20">
-        <v>0.04451548406240846</v>
+        <v>0.04451548406218109</v>
       </c>
       <c r="E20">
-        <v>0.07913164665671601</v>
+        <v>0.07913164665659878</v>
       </c>
       <c r="F20">
-        <v>9.602771871590306</v>
+        <v>9.602771871590392</v>
       </c>
       <c r="G20">
-        <v>0.0007563197420352145</v>
+        <v>0.0007563197420338285</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.419827046693058</v>
+        <v>0.4198270466931433</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.075527469935309</v>
+        <v>6.075527469935423</v>
       </c>
       <c r="C21">
-        <v>1.624985169664114</v>
+        <v>1.624985169664626</v>
       </c>
       <c r="D21">
-        <v>0.05261278868731978</v>
+        <v>0.0526127886869503</v>
       </c>
       <c r="E21">
-        <v>0.0896637825179134</v>
+        <v>0.08966378251794183</v>
       </c>
       <c r="F21">
-        <v>10.88926358633859</v>
+        <v>10.88926358633853</v>
       </c>
       <c r="G21">
-        <v>0.0007385453403207048</v>
+        <v>0.0007385453404408005</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4781777460870984</v>
+        <v>0.4781777460869847</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.630310504269914</v>
+        <v>6.630310504270028</v>
       </c>
       <c r="C22">
-        <v>1.778937140835183</v>
+        <v>1.778937140835637</v>
       </c>
       <c r="D22">
-        <v>0.05833543466583535</v>
+        <v>0.05833543466579982</v>
       </c>
       <c r="E22">
-        <v>0.09699055586602867</v>
+        <v>0.09699055586607486</v>
       </c>
       <c r="F22">
-        <v>11.77754066640699</v>
+        <v>11.77754066640705</v>
       </c>
       <c r="G22">
-        <v>0.0007267670802386725</v>
+        <v>0.0007267670803533127</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5185000654125389</v>
+        <v>0.5185000654124394</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.331343433539132</v>
+        <v>6.331343433538848</v>
       </c>
       <c r="C23">
-        <v>1.695903132751994</v>
+        <v>1.695903132750573</v>
       </c>
       <c r="D23">
-        <v>0.05523589189799338</v>
+        <v>0.05523589189832023</v>
       </c>
       <c r="E23">
-        <v>0.09303426361000078</v>
+        <v>0.09303426360995104</v>
       </c>
       <c r="F23">
-        <v>11.29851019605661</v>
+        <v>11.29851019605695</v>
       </c>
       <c r="G23">
-        <v>0.0007330730812641258</v>
+        <v>0.0007330730811327486</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4967519736591299</v>
+        <v>0.496751973659201</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.255978821668691</v>
+        <v>5.255978821668236</v>
       </c>
       <c r="C24">
-        <v>1.398571029896175</v>
+        <v>1.398571029894811</v>
       </c>
       <c r="D24">
-        <v>0.04438922450327709</v>
+        <v>0.04438922450309946</v>
       </c>
       <c r="E24">
-        <v>0.07896592112273026</v>
+        <v>0.07896592112279777</v>
       </c>
       <c r="F24">
         <v>9.582425546452868</v>
       </c>
       <c r="G24">
-        <v>0.0007566085259585003</v>
+        <v>0.000756608526184407</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4189047344672616</v>
+        <v>0.418904734467219</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>4.185062802181108</v>
       </c>
       <c r="C25">
-        <v>1.104385963401683</v>
+        <v>1.104385963401228</v>
       </c>
       <c r="D25">
-        <v>0.03405502384266157</v>
+        <v>0.03405502384234183</v>
       </c>
       <c r="E25">
-        <v>0.06525697957497556</v>
+        <v>0.06525697957501464</v>
       </c>
       <c r="F25">
-        <v>7.88558982296675</v>
+        <v>7.885589822966608</v>
       </c>
       <c r="G25">
-        <v>0.0007817117039674581</v>
+        <v>0.0007817117039821877</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3420592643256555</v>
+        <v>0.3420592643255986</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.448302998296811</v>
+        <v>3.471200775594355</v>
       </c>
       <c r="C2">
-        <v>0.9029792202541103</v>
+        <v>1.111096807357455</v>
       </c>
       <c r="D2">
-        <v>0.02721432060401696</v>
+        <v>0.178098339253026</v>
       </c>
       <c r="E2">
-        <v>0.05605249652801803</v>
+        <v>0.1936189406367532</v>
       </c>
       <c r="F2">
-        <v>6.726400190158387</v>
+        <v>1.133210992933115</v>
       </c>
       <c r="G2">
-        <v>0.0008003039932528319</v>
+        <v>0.7645889661416021</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001236348971099144</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2896736897724992</v>
+        <v>0.5059604124475072</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3004123967552808</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2503469898487651</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,43 +468,49 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.971933580995824</v>
+        <v>3.018153988746803</v>
       </c>
       <c r="C3">
-        <v>0.7731251663113028</v>
+        <v>0.9660112263915437</v>
       </c>
       <c r="D3">
-        <v>0.02290652906184221</v>
+        <v>0.157431048866286</v>
       </c>
       <c r="E3">
-        <v>0.05023021538717032</v>
+        <v>0.1711338985212514</v>
       </c>
       <c r="F3">
-        <v>5.980981341814839</v>
+        <v>1.04953531089825</v>
       </c>
       <c r="G3">
-        <v>0.0008131060406644938</v>
+        <v>0.704579295647406</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0002082090677468784</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.256059100875774</v>
+        <v>0.4851459468353596</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3014598814462204</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2212679044692791</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -509,43 +521,49 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.688273371566879</v>
+        <v>2.740495133741206</v>
       </c>
       <c r="C4">
-        <v>0.6959207877529252</v>
+        <v>0.8771126763539598</v>
       </c>
       <c r="D4">
-        <v>0.02038357765563958</v>
+        <v>0.1447707574705674</v>
       </c>
       <c r="E4">
-        <v>0.04682356227590745</v>
+        <v>0.157377793412163</v>
       </c>
       <c r="F4">
-        <v>5.538808353936702</v>
+        <v>0.9998860820717113</v>
       </c>
       <c r="G4">
-        <v>0.0008211020246504814</v>
+        <v>0.6694294479947018</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.70721173398114E-06</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2361562406331217</v>
+        <v>0.473331283646516</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3031075333285216</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2034890935587654</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -556,43 +574,49 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.574581973521276</v>
+        <v>2.627430152861109</v>
       </c>
       <c r="C5">
-        <v>0.6649989549758857</v>
+        <v>0.8409166399366939</v>
       </c>
       <c r="D5">
-        <v>0.01938103737332497</v>
+        <v>0.1396160078948441</v>
       </c>
       <c r="E5">
-        <v>0.04547292519751167</v>
+        <v>0.1517805012431097</v>
       </c>
       <c r="F5">
-        <v>5.36196660466544</v>
+        <v>0.9800549672277867</v>
       </c>
       <c r="G5">
-        <v>0.0008243991525579186</v>
+        <v>0.6554990727268546</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.716157345943436E-05</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2282058723526319</v>
+        <v>0.468744247450104</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3040167502551974</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1962572959393896</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -603,43 +627,49 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.555809928391511</v>
+        <v>2.608659548360947</v>
       </c>
       <c r="C6">
-        <v>0.6598944268786227</v>
+        <v>0.8349077443393469</v>
       </c>
       <c r="D6">
-        <v>0.01921597419477195</v>
+        <v>0.1387602488487687</v>
       </c>
       <c r="E6">
-        <v>0.04525079754974826</v>
+        <v>0.1508514692875913</v>
       </c>
       <c r="F6">
-        <v>5.33278936038883</v>
+        <v>0.9767853307290153</v>
       </c>
       <c r="G6">
-        <v>0.0008249491007590526</v>
+        <v>0.6532087763960419</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.553999370835669E-05</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2268947211476728</v>
+        <v>0.467995886140244</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3041816687789307</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1950570940105365</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -650,43 +680,49 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.68673277936432</v>
+        <v>2.738970021060481</v>
       </c>
       <c r="C7">
-        <v>0.6955016980899416</v>
+        <v>0.876624418847598</v>
       </c>
       <c r="D7">
-        <v>0.020369959747498</v>
+        <v>0.1447012246301966</v>
       </c>
       <c r="E7">
-        <v>0.0468052006536368</v>
+        <v>0.1573022774678563</v>
       </c>
       <c r="F7">
-        <v>5.536410536305681</v>
+        <v>0.9996170501949848</v>
       </c>
       <c r="G7">
-        <v>0.0008211463285372234</v>
+        <v>0.6692400273293657</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.521589984676552E-06</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2360484013893966</v>
+        <v>0.4732685195344288</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3031188515496623</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2033915170332534</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -697,43 +733,49 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.282012790167698</v>
+        <v>3.314854817027594</v>
       </c>
       <c r="C8">
-        <v>0.8576194665841115</v>
+        <v>1.061023231127251</v>
       </c>
       <c r="D8">
-        <v>0.02570037406264447</v>
+        <v>0.1709642604030819</v>
       </c>
       <c r="E8">
-        <v>0.05400702242320676</v>
+        <v>0.1858532200845673</v>
       </c>
       <c r="F8">
-        <v>6.465803389734788</v>
+        <v>1.103980421400166</v>
       </c>
       <c r="G8">
-        <v>0.0008046929907470357</v>
+        <v>0.7435250556615927</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0007892256344077531</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2779144207484308</v>
+        <v>0.4985737458754045</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3005559288479951</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2403011380122066</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -744,43 +786,49 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.536332698958347</v>
+        <v>4.450537519426348</v>
       </c>
       <c r="C9">
-        <v>1.200684366356711</v>
+        <v>1.42487032526077</v>
       </c>
       <c r="D9">
-        <v>0.03739350218128834</v>
+        <v>0.222848136666272</v>
       </c>
       <c r="E9">
-        <v>0.06971534763782472</v>
+        <v>0.2424358077960918</v>
       </c>
       <c r="F9">
-        <v>8.440707384059323</v>
+        <v>1.323947613190754</v>
       </c>
       <c r="G9">
-        <v>0.0007732591543417375</v>
+        <v>0.9042518871232659</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.006049248295275311</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3671815133470346</v>
+        <v>0.5565925947902599</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3042093632876472</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3135668114914125</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -791,43 +839,49 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.539446936682964</v>
+        <v>5.291038919856931</v>
       </c>
       <c r="C10">
-        <v>1.47675215390683</v>
+        <v>1.688179736877544</v>
       </c>
       <c r="D10">
-        <v>0.04720263424910343</v>
+        <v>0.2566317924203645</v>
       </c>
       <c r="E10">
-        <v>0.08264795761272126</v>
+        <v>0.2748127890431604</v>
       </c>
       <c r="F10">
-        <v>10.03367899497417</v>
+        <v>1.467263265283279</v>
       </c>
       <c r="G10">
-        <v>0.0007502626375769946</v>
+        <v>1.011996741899836</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.01248839313815342</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4393644174029987</v>
+        <v>0.5945149065148598</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3048933792837047</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3522548602995954</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -838,43 +892,49 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.021757004846904</v>
+        <v>5.664364322468884</v>
       </c>
       <c r="C11">
-        <v>1.610093925693718</v>
+        <v>1.750971942779643</v>
       </c>
       <c r="D11">
-        <v>0.05206483841547538</v>
+        <v>0.2316862149331911</v>
       </c>
       <c r="E11">
-        <v>0.0889571312120232</v>
+        <v>0.2110129255229296</v>
       </c>
       <c r="F11">
-        <v>10.80332075185044</v>
+        <v>1.282783341776494</v>
       </c>
       <c r="G11">
-        <v>0.0007397049686075572</v>
+        <v>0.8799683943840932</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03143430848019335</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4742778080897381</v>
+        <v>0.5214083579755311</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2391248751623678</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2457908676211531</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -885,43 +945,49 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.209020243982025</v>
+        <v>5.801426548012103</v>
       </c>
       <c r="C12">
-        <v>1.661977444805359</v>
+        <v>1.747221371413787</v>
       </c>
       <c r="D12">
-        <v>0.05397826453995691</v>
+        <v>0.2050171135697383</v>
       </c>
       <c r="E12">
-        <v>0.09142086229214641</v>
+        <v>0.1596298362652391</v>
       </c>
       <c r="F12">
-        <v>11.10274585811283</v>
+        <v>1.106621058988253</v>
       </c>
       <c r="G12">
-        <v>0.0007356806587959024</v>
+        <v>0.7530752198419322</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06945052469472301</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4878662628900372</v>
+        <v>0.4549827563918996</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1892463860282874</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1688987826940505</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -932,43 +998,49 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.16846777707724</v>
+        <v>5.762992064481239</v>
       </c>
       <c r="C13">
-        <v>1.650736491445514</v>
+        <v>1.69209225453659</v>
       </c>
       <c r="D13">
-        <v>0.05356268899122796</v>
+        <v>0.1756644977129156</v>
       </c>
       <c r="E13">
-        <v>0.09088669002324679</v>
+        <v>0.1151500095076941</v>
       </c>
       <c r="F13">
-        <v>11.03787663043323</v>
+        <v>0.9271744623083009</v>
       </c>
       <c r="G13">
-        <v>0.0007365487680889034</v>
+        <v>0.6228322871002092</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1236933616178675</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4849221297061206</v>
+        <v>0.3897770784526671</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.148258353370295</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1107147324213678</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -979,43 +1051,49 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.037064793684578</v>
+        <v>5.656850643959785</v>
       </c>
       <c r="C14">
-        <v>1.614332748418803</v>
+        <v>1.630587281974272</v>
       </c>
       <c r="D14">
-        <v>0.05222071275147044</v>
+        <v>0.1543368205960149</v>
       </c>
       <c r="E14">
-        <v>0.0891582414340597</v>
+        <v>0.08869937513930282</v>
       </c>
       <c r="F14">
-        <v>10.82778483984362</v>
+        <v>0.8027955177562802</v>
       </c>
       <c r="G14">
-        <v>0.0007393744963467165</v>
+        <v>0.532158185635069</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.171707871083143</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4753879210278598</v>
+        <v>0.3456059825601727</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1245682151095444</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08164180055239001</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1026,43 +1104,49 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.957208533263383</v>
+        <v>5.593626859279254</v>
       </c>
       <c r="C15">
-        <v>1.592224680830896</v>
+        <v>1.60490572429336</v>
       </c>
       <c r="D15">
-        <v>0.05140861529923058</v>
+        <v>0.148434374620436</v>
       </c>
       <c r="E15">
-        <v>0.08810967879758991</v>
+        <v>0.08259868316537933</v>
       </c>
       <c r="F15">
-        <v>10.70018729268924</v>
+        <v>0.7707937726844136</v>
       </c>
       <c r="G15">
-        <v>0.0007411014852645097</v>
+        <v>0.5085834947776675</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1836611230840504</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4695981195130088</v>
+        <v>0.3347535877143741</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1199399631387088</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.07588285595419286</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1073,43 +1157,49 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.50852098168383</v>
+        <v>5.237831038943057</v>
       </c>
       <c r="C16">
-        <v>1.468216063059572</v>
+        <v>1.50395842788555</v>
       </c>
       <c r="D16">
-        <v>0.04689410477787703</v>
+        <v>0.1407838326890101</v>
       </c>
       <c r="E16">
-        <v>0.08224528121541042</v>
+        <v>0.07937192743004751</v>
       </c>
       <c r="F16">
-        <v>9.984407813678388</v>
+        <v>0.7487981338685472</v>
       </c>
       <c r="G16">
-        <v>0.0007509496616923419</v>
+        <v>0.4901604784736406</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1684563115785238</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4371300752986826</v>
+        <v>0.3320959769510097</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1272306031885364</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07346735801217719</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1120,43 +1210,49 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.240491462601085</v>
+        <v>5.022165481214984</v>
       </c>
       <c r="C17">
-        <v>1.394303485948456</v>
+        <v>1.45918253478402</v>
       </c>
       <c r="D17">
-        <v>0.0442364555411956</v>
+        <v>0.1459350513584923</v>
       </c>
       <c r="E17">
-        <v>0.07876533971024102</v>
+        <v>0.08981374435309419</v>
       </c>
       <c r="F17">
-        <v>9.557795263728337</v>
+        <v>0.7966324982875364</v>
       </c>
       <c r="G17">
-        <v>0.0007569584598579252</v>
+        <v>0.5233724795242551</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1295192518313826</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.41778825166449</v>
+        <v>0.3532098282652782</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1451200362067837</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08476072800905143</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1167,43 +1263,49 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.088710880755059</v>
+        <v>4.90144855786582</v>
       </c>
       <c r="C18">
-        <v>1.352501393199816</v>
+        <v>1.457116494090769</v>
       </c>
       <c r="D18">
-        <v>0.04274443900360581</v>
+        <v>0.1635500231256657</v>
       </c>
       <c r="E18">
-        <v>0.07680292013203882</v>
+        <v>0.1179028246619609</v>
       </c>
       <c r="F18">
-        <v>9.31654631063094</v>
+        <v>0.9153504829839676</v>
       </c>
       <c r="G18">
-        <v>0.0007604063733446242</v>
+        <v>0.6086421529067962</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07657174830194435</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4068539367831505</v>
+        <v>0.3989360392061769</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1769658722222651</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1195917894895402</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1214,43 +1316,49 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.03770602630982</v>
+        <v>4.865658015669112</v>
       </c>
       <c r="C19">
-        <v>1.33846259343909</v>
+        <v>1.48951388303999</v>
       </c>
       <c r="D19">
-        <v>0.04224515939750972</v>
+        <v>0.1914469964688692</v>
       </c>
       <c r="E19">
-        <v>0.07614484515375963</v>
+        <v>0.1655009492870967</v>
       </c>
       <c r="F19">
-        <v>9.235531762993901</v>
+        <v>1.092290916212264</v>
       </c>
       <c r="G19">
-        <v>0.000761572707489222</v>
+        <v>0.7369009262451698</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03230717528047222</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4031826464713362</v>
+        <v>0.464507035896446</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2224505421068379</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1868647877285099</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1261,43 +1369,49 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.268771258255128</v>
+        <v>5.069654792998165</v>
       </c>
       <c r="C20">
-        <v>1.402096289716383</v>
+        <v>1.618567856004802</v>
       </c>
       <c r="D20">
-        <v>0.04451548406218109</v>
+        <v>0.2475289447715028</v>
       </c>
       <c r="E20">
-        <v>0.07913164665659878</v>
+        <v>0.2658568539377555</v>
       </c>
       <c r="F20">
-        <v>9.602771871590392</v>
+        <v>1.427525078852028</v>
       </c>
       <c r="G20">
-        <v>0.0007563197420338285</v>
+        <v>0.9819290180667508</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.01056704518646701</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4198270466931433</v>
+        <v>0.5836406347276721</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3038811835893256</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3413602845884611</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1308,43 +1422,49 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.075527469935423</v>
+        <v>5.720037489676827</v>
       </c>
       <c r="C21">
-        <v>1.624985169664626</v>
+        <v>1.831925076438665</v>
       </c>
       <c r="D21">
-        <v>0.0526127886869503</v>
+        <v>0.2810728014896426</v>
       </c>
       <c r="E21">
-        <v>0.08966378251794183</v>
+        <v>0.3062312479920877</v>
       </c>
       <c r="F21">
-        <v>10.88926358633853</v>
+        <v>1.588341178560142</v>
       </c>
       <c r="G21">
-        <v>0.0007385453404408005</v>
+        <v>1.102864207484089</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01687531095515782</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4781777460869847</v>
+        <v>0.6319341437132948</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3196664484323293</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3963722844332409</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1355,43 +1475,49 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.630310504270028</v>
+        <v>6.147044260496386</v>
       </c>
       <c r="C22">
-        <v>1.778937140835637</v>
+        <v>1.968924399037576</v>
       </c>
       <c r="D22">
-        <v>0.05833543466579982</v>
+        <v>0.3007232005305269</v>
       </c>
       <c r="E22">
-        <v>0.09699055586607486</v>
+        <v>0.3278333472499639</v>
       </c>
       <c r="F22">
-        <v>11.77754066640705</v>
+        <v>1.681149453803428</v>
       </c>
       <c r="G22">
-        <v>0.0007267670803533127</v>
+        <v>1.173699430902019</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02157079971378262</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5185000654124394</v>
+        <v>0.6594547689953174</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3272495806416416</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4244601244816835</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1402,43 +1528,49 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.331343433538848</v>
+        <v>5.918878337081651</v>
       </c>
       <c r="C23">
-        <v>1.695903132750573</v>
+        <v>1.895715149222099</v>
       </c>
       <c r="D23">
-        <v>0.05523589189832023</v>
+        <v>0.2902188087679463</v>
       </c>
       <c r="E23">
-        <v>0.09303426360995104</v>
+        <v>0.3162811716805223</v>
       </c>
       <c r="F23">
-        <v>11.29851019605695</v>
+        <v>1.631327360259874</v>
       </c>
       <c r="G23">
-        <v>0.0007330730811327486</v>
+        <v>1.135607542034734</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01899849989440128</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.496751973659201</v>
+        <v>0.6446200002725959</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3230554249147204</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4094365125485524</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1449,43 +1581,49 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.255978821668236</v>
+        <v>5.060068194801261</v>
       </c>
       <c r="C24">
-        <v>1.398571029894811</v>
+        <v>1.620265889370785</v>
       </c>
       <c r="D24">
-        <v>0.04438922450309946</v>
+        <v>0.2507692443592191</v>
       </c>
       <c r="E24">
-        <v>0.07896592112279777</v>
+        <v>0.2729886629675349</v>
       </c>
       <c r="F24">
-        <v>9.582425546452868</v>
+        <v>1.448653786988302</v>
       </c>
       <c r="G24">
-        <v>0.000756608526184407</v>
+        <v>0.9972979814952936</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01064224532720343</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.418904734467219</v>
+        <v>0.5915057162780926</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3102551960123705</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3531971134606238</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1496,43 +1634,49 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.185062802181108</v>
+        <v>4.142274476261548</v>
       </c>
       <c r="C25">
-        <v>1.104385963401228</v>
+        <v>1.326082520410466</v>
       </c>
       <c r="D25">
-        <v>0.03405502384234183</v>
+        <v>0.2087490445800313</v>
       </c>
       <c r="E25">
-        <v>0.06525697957501464</v>
+        <v>0.2270354580821987</v>
       </c>
       <c r="F25">
-        <v>7.885589822966608</v>
+        <v>1.262564974527564</v>
       </c>
       <c r="G25">
-        <v>0.0007817117039821877</v>
+        <v>0.8589239982956371</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.004177890205327328</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3420592643255986</v>
+        <v>0.5398897969292591</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3021876715370411</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2936094991857772</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.471200775594355</v>
+        <v>3.470588036980018</v>
       </c>
       <c r="C2">
-        <v>1.111096807357455</v>
+        <v>1.199703525403777</v>
       </c>
       <c r="D2">
-        <v>0.178098339253026</v>
+        <v>0.1914578472241573</v>
       </c>
       <c r="E2">
-        <v>0.1936189406367532</v>
+        <v>0.1969770167774954</v>
       </c>
       <c r="F2">
-        <v>1.133210992933115</v>
+        <v>1.040585601370353</v>
       </c>
       <c r="G2">
-        <v>0.7645889661416021</v>
+        <v>0.6541072923185425</v>
       </c>
       <c r="H2">
-        <v>0.001236348971099144</v>
+        <v>0.001106893434413614</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5059604124475072</v>
+        <v>0.5044897062909115</v>
       </c>
       <c r="K2">
-        <v>0.3004123967552808</v>
+        <v>0.2523582040500258</v>
       </c>
       <c r="L2">
-        <v>0.2503469898487651</v>
+        <v>0.1491971972547965</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05567728724544807</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2466934906129268</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -474,49 +480,55 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.018153988746803</v>
+        <v>3.021094957240564</v>
       </c>
       <c r="C3">
-        <v>0.9660112263915437</v>
+        <v>1.036850223718773</v>
       </c>
       <c r="D3">
-        <v>0.157431048866286</v>
+        <v>0.1688764255088131</v>
       </c>
       <c r="E3">
-        <v>0.1711338985212514</v>
+        <v>0.1744537525053005</v>
       </c>
       <c r="F3">
-        <v>1.04953531089825</v>
+        <v>0.9719583381010892</v>
       </c>
       <c r="G3">
-        <v>0.704579295647406</v>
+        <v>0.6092624305880179</v>
       </c>
       <c r="H3">
-        <v>0.0002082090677468784</v>
+        <v>0.0002035531555535375</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4851459468353596</v>
+        <v>0.4864609363095553</v>
       </c>
       <c r="K3">
-        <v>0.3014598814462204</v>
+        <v>0.2584738759914096</v>
       </c>
       <c r="L3">
-        <v>0.2212679044692791</v>
+        <v>0.1556243665869985</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05392516632450217</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2189985902617835</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -527,49 +539,55 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.740495133741206</v>
+        <v>2.745182972512339</v>
       </c>
       <c r="C4">
-        <v>0.8771126763539598</v>
+        <v>0.9372679793349619</v>
       </c>
       <c r="D4">
-        <v>0.1447707574705674</v>
+        <v>0.1550642683817216</v>
       </c>
       <c r="E4">
-        <v>0.157377793412163</v>
+        <v>0.160663145304941</v>
       </c>
       <c r="F4">
-        <v>0.9998860820717113</v>
+        <v>0.9310505448220709</v>
       </c>
       <c r="G4">
-        <v>0.6694294479947018</v>
+        <v>0.5831761473177437</v>
       </c>
       <c r="H4">
-        <v>1.70721173398114E-06</v>
+        <v>4.943035641469251E-06</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.473331283646516</v>
+        <v>0.4757982495411426</v>
       </c>
       <c r="K4">
-        <v>0.3031075333285216</v>
+        <v>0.2629410622820458</v>
       </c>
       <c r="L4">
-        <v>0.2034890935587654</v>
+        <v>0.1597809306060753</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05371867852946011</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2020303568612292</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -580,49 +598,55 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.627430152861109</v>
+        <v>2.632733365261686</v>
       </c>
       <c r="C5">
-        <v>0.8409166399366939</v>
+        <v>0.8967758948083144</v>
       </c>
       <c r="D5">
-        <v>0.1396160078948441</v>
+        <v>0.1494465884108536</v>
       </c>
       <c r="E5">
-        <v>0.1517805012431097</v>
+        <v>0.1550498367735003</v>
       </c>
       <c r="F5">
-        <v>0.9800549672277867</v>
+        <v>0.9146639556153247</v>
       </c>
       <c r="G5">
-        <v>0.6554990727268546</v>
+        <v>0.5728803006935266</v>
       </c>
       <c r="H5">
-        <v>1.716157345943436E-05</v>
+        <v>7.736642712474762E-06</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.468744247450104</v>
+        <v>0.4715481159560539</v>
       </c>
       <c r="K5">
-        <v>0.3040167502551974</v>
+        <v>0.2649302152852364</v>
       </c>
       <c r="L5">
-        <v>0.1962572959393896</v>
+        <v>0.1615271692436764</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05384465227072432</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.195120238706501</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -633,49 +657,55 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.608659548360947</v>
+        <v>2.614059477110857</v>
       </c>
       <c r="C6">
-        <v>0.8349077443393469</v>
+        <v>0.8900571494659459</v>
       </c>
       <c r="D6">
-        <v>0.1387602488487687</v>
+        <v>0.148514366588401</v>
       </c>
       <c r="E6">
-        <v>0.1508514692875913</v>
+        <v>0.1541180499452217</v>
       </c>
       <c r="F6">
-        <v>0.9767853307290153</v>
+        <v>0.9119593851891779</v>
       </c>
       <c r="G6">
-        <v>0.6532087763960419</v>
+        <v>0.5711900460181312</v>
       </c>
       <c r="H6">
-        <v>2.553999370835669E-05</v>
+        <v>1.309303246976867E-05</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.467995886140244</v>
+        <v>0.4708479136750299</v>
       </c>
       <c r="K6">
-        <v>0.3041816687789307</v>
+        <v>0.2652704111637156</v>
       </c>
       <c r="L6">
-        <v>0.1950570940105365</v>
+        <v>0.1618202832323732</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0538780211340999</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1939729645832173</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -686,49 +716,55 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.738970021060481</v>
+        <v>2.743600934539188</v>
       </c>
       <c r="C7">
-        <v>0.876624418847598</v>
+        <v>0.935528056708506</v>
       </c>
       <c r="D7">
-        <v>0.1447012246301966</v>
+        <v>0.1553598587565261</v>
       </c>
       <c r="E7">
-        <v>0.1573022774678563</v>
+        <v>0.1606796144342404</v>
       </c>
       <c r="F7">
-        <v>0.9996170501949848</v>
+        <v>0.9283283838819614</v>
       </c>
       <c r="G7">
-        <v>0.6692400273293657</v>
+        <v>0.5859613627645075</v>
       </c>
       <c r="H7">
-        <v>1.521589984676552E-06</v>
+        <v>4.413278477777283E-06</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4732685195344288</v>
+        <v>0.4689299260002571</v>
       </c>
       <c r="K7">
-        <v>0.3031188515496623</v>
+        <v>0.2621251822979147</v>
       </c>
       <c r="L7">
-        <v>0.2033915170332534</v>
+        <v>0.1593961087789388</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05348979341636451</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2018377422792668</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -739,49 +775,55 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.314854817027594</v>
+        <v>3.315326640301123</v>
       </c>
       <c r="C8">
-        <v>1.061023231127251</v>
+        <v>1.139423033080163</v>
       </c>
       <c r="D8">
-        <v>0.1709642604030819</v>
+        <v>0.1849125646260461</v>
       </c>
       <c r="E8">
-        <v>0.1858532200845673</v>
+        <v>0.1895124394413585</v>
       </c>
       <c r="F8">
-        <v>1.103980421400166</v>
+        <v>1.008374510369791</v>
       </c>
       <c r="G8">
-        <v>0.7435250556615927</v>
+        <v>0.6481249298342391</v>
       </c>
       <c r="H8">
-        <v>0.0007892256344077531</v>
+        <v>0.000708771187298618</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4985737458754045</v>
+        <v>0.4758618449376115</v>
       </c>
       <c r="K8">
-        <v>0.3005559288479951</v>
+        <v>0.2515886539005194</v>
       </c>
       <c r="L8">
-        <v>0.2403011380122066</v>
+        <v>0.1501549422015351</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05403652605577491</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2368025361646886</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -792,49 +834,55 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.450537519426348</v>
+        <v>4.438992213239601</v>
       </c>
       <c r="C9">
-        <v>1.42487032526077</v>
+        <v>1.547570222433819</v>
       </c>
       <c r="D9">
-        <v>0.222848136666272</v>
+        <v>0.2420537072880933</v>
       </c>
       <c r="E9">
-        <v>0.2424358077960918</v>
+        <v>0.2461839282713782</v>
       </c>
       <c r="F9">
-        <v>1.323947613190754</v>
+        <v>1.185387954061824</v>
       </c>
       <c r="G9">
-        <v>0.9042518871232659</v>
+        <v>0.7722665180745878</v>
       </c>
       <c r="H9">
-        <v>0.006049248295275311</v>
+        <v>0.005188594837013616</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5565925947902599</v>
+        <v>0.5173128228441612</v>
       </c>
       <c r="K9">
-        <v>0.3042093632876472</v>
+        <v>0.2401205916452192</v>
       </c>
       <c r="L9">
-        <v>0.3135668114914125</v>
+        <v>0.1352165243858821</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.06323157116831979</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3062392500716413</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -845,49 +893,55 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.291038919856931</v>
+        <v>5.266946967120361</v>
       </c>
       <c r="C10">
-        <v>1.688179736877544</v>
+        <v>1.833892665242388</v>
       </c>
       <c r="D10">
-        <v>0.2566317924203645</v>
+        <v>0.2813452267620136</v>
       </c>
       <c r="E10">
-        <v>0.2748127890431604</v>
+        <v>0.278829927872458</v>
       </c>
       <c r="F10">
-        <v>1.467263265283279</v>
+        <v>1.284284542817275</v>
       </c>
       <c r="G10">
-        <v>1.011996741899836</v>
+        <v>0.8735021929621496</v>
       </c>
       <c r="H10">
-        <v>0.01248839313815342</v>
+        <v>0.0105660703764503</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5945149065148598</v>
+        <v>0.5043700022989981</v>
       </c>
       <c r="K10">
-        <v>0.3048933792837047</v>
+        <v>0.2260907991766956</v>
       </c>
       <c r="L10">
-        <v>0.3522548602995954</v>
+        <v>0.1217357837442634</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.07092118658055568</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3415393806945417</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -898,49 +952,55 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.664364322468884</v>
+        <v>5.635094867253656</v>
       </c>
       <c r="C11">
-        <v>1.750971942779643</v>
+        <v>1.867422748766842</v>
       </c>
       <c r="D11">
-        <v>0.2316862149331911</v>
+        <v>0.2565314450367993</v>
       </c>
       <c r="E11">
-        <v>0.2110129255229296</v>
+        <v>0.2140197361774767</v>
       </c>
       <c r="F11">
-        <v>1.282783341776494</v>
+        <v>1.098019657983258</v>
       </c>
       <c r="G11">
-        <v>0.8799683943840932</v>
+        <v>0.8013842050718409</v>
       </c>
       <c r="H11">
-        <v>0.03143430848019335</v>
+        <v>0.02922543283596113</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5214083579755311</v>
+        <v>0.3779944986226553</v>
       </c>
       <c r="K11">
-        <v>0.2391248751623678</v>
+        <v>0.1702297106241488</v>
       </c>
       <c r="L11">
-        <v>0.2457908676211531</v>
+        <v>0.09884097173487127</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.05382897183900326</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2355662779263952</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -951,49 +1011,55 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.801426548012103</v>
+        <v>5.770968020951898</v>
       </c>
       <c r="C12">
-        <v>1.747221371413787</v>
+        <v>1.838549433710739</v>
       </c>
       <c r="D12">
-        <v>0.2050171135697383</v>
+        <v>0.2273417959662538</v>
       </c>
       <c r="E12">
-        <v>0.1596298362652391</v>
+        <v>0.1613706817383758</v>
       </c>
       <c r="F12">
-        <v>1.106621058988253</v>
+        <v>0.9389808707830127</v>
       </c>
       <c r="G12">
-        <v>0.7530752198419322</v>
+        <v>0.7110644795006351</v>
       </c>
       <c r="H12">
-        <v>0.06945052469472301</v>
+        <v>0.06725264894257776</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4549827563918996</v>
+        <v>0.3063722951783632</v>
       </c>
       <c r="K12">
-        <v>0.1892463860282874</v>
+        <v>0.1340671762288679</v>
       </c>
       <c r="L12">
-        <v>0.1688987826940505</v>
+        <v>0.08572367096775935</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04031691729124631</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1601381905967045</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1004,49 +1070,55 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.762992064481239</v>
+        <v>5.734679187650215</v>
       </c>
       <c r="C13">
-        <v>1.69209225453659</v>
+        <v>1.763406655280392</v>
       </c>
       <c r="D13">
-        <v>0.1756644977129156</v>
+        <v>0.1928689179269441</v>
       </c>
       <c r="E13">
-        <v>0.1151500095076941</v>
+        <v>0.1154186521532665</v>
       </c>
       <c r="F13">
-        <v>0.9271744623083009</v>
+        <v>0.7942723270641352</v>
       </c>
       <c r="G13">
-        <v>0.6228322871002092</v>
+        <v>0.59659659364101</v>
       </c>
       <c r="H13">
-        <v>0.1236933616178675</v>
+        <v>0.1217486768762654</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3897770784526671</v>
+        <v>0.2727612915923316</v>
       </c>
       <c r="K13">
-        <v>0.148258353370295</v>
+        <v>0.1100337119670023</v>
       </c>
       <c r="L13">
-        <v>0.1107147324213678</v>
+        <v>0.078132147456909</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0291659380623237</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1040561777241109</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1057,49 +1129,55 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.656850643959785</v>
+        <v>5.631411767043858</v>
       </c>
       <c r="C14">
-        <v>1.630587281974272</v>
+        <v>1.690065384233719</v>
       </c>
       <c r="D14">
-        <v>0.1543368205960149</v>
+        <v>0.1671821501232671</v>
       </c>
       <c r="E14">
-        <v>0.08869937513930282</v>
+        <v>0.08801798956950435</v>
       </c>
       <c r="F14">
-        <v>0.8027955177562802</v>
+        <v>0.6996679211022681</v>
       </c>
       <c r="G14">
-        <v>0.532158185635069</v>
+        <v>0.5091589964614656</v>
       </c>
       <c r="H14">
-        <v>0.171707871083143</v>
+        <v>0.1700245274922452</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3456059825601727</v>
+        <v>0.2624626414037223</v>
       </c>
       <c r="K14">
-        <v>0.1245682151095444</v>
+        <v>0.09836026581272961</v>
       </c>
       <c r="L14">
-        <v>0.08164180055239001</v>
+        <v>0.07490234787105887</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02261418258945191</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07651316661522145</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1110,49 +1188,55 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.593626859279254</v>
+        <v>5.569546763350672</v>
       </c>
       <c r="C15">
-        <v>1.60490572429336</v>
+        <v>1.662330423030596</v>
       </c>
       <c r="D15">
-        <v>0.148434374620436</v>
+        <v>0.1598478061166588</v>
       </c>
       <c r="E15">
-        <v>0.08259868316537933</v>
+        <v>0.08170358460943383</v>
       </c>
       <c r="F15">
-        <v>0.7707937726844136</v>
+        <v>0.6776124560137404</v>
       </c>
       <c r="G15">
-        <v>0.5085834947776675</v>
+        <v>0.4836657892852827</v>
       </c>
       <c r="H15">
-        <v>0.1836611230840504</v>
+        <v>0.1820905432257405</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3347535877143741</v>
+        <v>0.2650766072742954</v>
       </c>
       <c r="K15">
-        <v>0.1199399631387088</v>
+        <v>0.09702422472180139</v>
       </c>
       <c r="L15">
-        <v>0.07588285595419286</v>
+        <v>0.07475645492780636</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02125807480453723</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07119982912510814</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1163,49 +1247,55 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.237831038943057</v>
+        <v>5.219854412245127</v>
       </c>
       <c r="C16">
-        <v>1.50395842788555</v>
+        <v>1.567376818087837</v>
       </c>
       <c r="D16">
-        <v>0.1407838326890101</v>
+        <v>0.1487561703636544</v>
       </c>
       <c r="E16">
-        <v>0.07937192743004751</v>
+        <v>0.07846721571208981</v>
       </c>
       <c r="F16">
-        <v>0.7487981338685472</v>
+        <v>0.6810433518661014</v>
       </c>
       <c r="G16">
-        <v>0.4901604784736406</v>
+        <v>0.443908142615129</v>
       </c>
       <c r="H16">
-        <v>0.1684563115785238</v>
+        <v>0.1673590208910554</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3320959769510097</v>
+        <v>0.3114851778633323</v>
       </c>
       <c r="K16">
-        <v>0.1272306031885364</v>
+        <v>0.1092696372657009</v>
       </c>
       <c r="L16">
-        <v>0.07346735801217719</v>
+        <v>0.08046786982441123</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02242563568931821</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06976438719134315</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1216,49 +1306,55 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.022165481214984</v>
+        <v>5.007122644233277</v>
       </c>
       <c r="C17">
-        <v>1.45918253478402</v>
+        <v>1.531500628143647</v>
       </c>
       <c r="D17">
-        <v>0.1459350513584923</v>
+        <v>0.1536850201555069</v>
       </c>
       <c r="E17">
-        <v>0.08981374435309419</v>
+        <v>0.0892920024594801</v>
       </c>
       <c r="F17">
-        <v>0.7966324982875364</v>
+        <v>0.7319100837524886</v>
       </c>
       <c r="G17">
-        <v>0.5233724795242551</v>
+        <v>0.4613443565058901</v>
       </c>
       <c r="H17">
-        <v>0.1295192518313826</v>
+        <v>0.1286273424771593</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3532098282652782</v>
+        <v>0.350970515942322</v>
       </c>
       <c r="K17">
-        <v>0.1451200362067837</v>
+        <v>0.1251979804940717</v>
       </c>
       <c r="L17">
-        <v>0.08476072800905143</v>
+        <v>0.0871798232387242</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02653220845406956</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.08116259799090741</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1269,49 +1365,55 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.90144855786582</v>
+        <v>4.887360874049421</v>
       </c>
       <c r="C18">
-        <v>1.457116494090769</v>
+        <v>1.544724528500694</v>
       </c>
       <c r="D18">
-        <v>0.1635500231256657</v>
+        <v>0.1732409884879473</v>
       </c>
       <c r="E18">
-        <v>0.1179028246619609</v>
+        <v>0.1181241150861254</v>
       </c>
       <c r="F18">
-        <v>0.9153504829839676</v>
+        <v>0.8381644268299624</v>
       </c>
       <c r="G18">
-        <v>0.6086421529067962</v>
+        <v>0.5267434866205036</v>
       </c>
       <c r="H18">
-        <v>0.07657174830194435</v>
+        <v>0.07571900253516617</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3989360392061769</v>
+        <v>0.3985901580320075</v>
       </c>
       <c r="K18">
-        <v>0.1769658722222651</v>
+        <v>0.1490282492275519</v>
       </c>
       <c r="L18">
-        <v>0.1195917894895402</v>
+        <v>0.09667994926044976</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03453628877125503</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1153674630081341</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1322,49 +1424,55 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.865658015669112</v>
+        <v>4.850903926262447</v>
       </c>
       <c r="C19">
-        <v>1.48951388303999</v>
+        <v>1.597765094194415</v>
       </c>
       <c r="D19">
-        <v>0.1914469964688692</v>
+        <v>0.2047415473192444</v>
       </c>
       <c r="E19">
-        <v>0.1655009492870967</v>
+        <v>0.1668327844031801</v>
       </c>
       <c r="F19">
-        <v>1.092290916212264</v>
+        <v>0.9905558616165422</v>
       </c>
       <c r="G19">
-        <v>0.7369009262451698</v>
+        <v>0.6293682701077756</v>
       </c>
       <c r="H19">
-        <v>0.03230717528047222</v>
+        <v>0.03134302063168803</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.464507035896446</v>
+        <v>0.4552197750595184</v>
       </c>
       <c r="K19">
-        <v>0.2224505421068379</v>
+        <v>0.1808997887236501</v>
       </c>
       <c r="L19">
-        <v>0.1868647877285099</v>
+        <v>0.1088897338272492</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04648078024637314</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1812678293943861</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1375,49 +1483,55 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.069654792998165</v>
+        <v>5.049473825324583</v>
       </c>
       <c r="C20">
-        <v>1.618567856004802</v>
+        <v>1.762623332610872</v>
       </c>
       <c r="D20">
-        <v>0.2475289447715028</v>
+        <v>0.2693682098623214</v>
       </c>
       <c r="E20">
-        <v>0.2658568539377555</v>
+        <v>0.2694620304014492</v>
       </c>
       <c r="F20">
-        <v>1.427525078852028</v>
+        <v>1.265481516341907</v>
       </c>
       <c r="G20">
-        <v>0.9819290180667508</v>
+        <v>0.8345855138970819</v>
       </c>
       <c r="H20">
-        <v>0.01056704518646701</v>
+        <v>0.008993608366464123</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5836406347276721</v>
+        <v>0.530173953834705</v>
       </c>
       <c r="K20">
-        <v>0.3038811835893256</v>
+        <v>0.2319171860127582</v>
       </c>
       <c r="L20">
-        <v>0.3413602845884611</v>
+        <v>0.1260397408049414</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.06957971409609343</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3319260726090221</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1428,49 +1542,55 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.720037489676827</v>
+        <v>5.68662688058032</v>
       </c>
       <c r="C21">
-        <v>1.831925076438665</v>
+        <v>1.974308954257481</v>
       </c>
       <c r="D21">
-        <v>0.2810728014896426</v>
+        <v>0.315885237250825</v>
       </c>
       <c r="E21">
-        <v>0.3062312479920877</v>
+        <v>0.3122330428970486</v>
       </c>
       <c r="F21">
-        <v>1.588341178560142</v>
+        <v>1.336349234017675</v>
       </c>
       <c r="G21">
-        <v>1.102864207484089</v>
+        <v>1.002942486600475</v>
       </c>
       <c r="H21">
-        <v>0.01687531095515782</v>
+        <v>0.01403461786802584</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6319341437132948</v>
+        <v>0.4208054125754899</v>
       </c>
       <c r="K21">
-        <v>0.3196664484323293</v>
+        <v>0.2170924653606043</v>
       </c>
       <c r="L21">
-        <v>0.3963722844332409</v>
+        <v>0.1143443742857855</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07468472932878001</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3817516443915991</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1481,49 +1601,55 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.147044260496386</v>
+        <v>6.103947683561898</v>
       </c>
       <c r="C22">
-        <v>1.968924399037576</v>
+        <v>2.106230095661886</v>
       </c>
       <c r="D22">
-        <v>0.3007232005305269</v>
+        <v>0.344611626321381</v>
       </c>
       <c r="E22">
-        <v>0.3278333472499639</v>
+        <v>0.3354847521736346</v>
       </c>
       <c r="F22">
-        <v>1.681149453803428</v>
+        <v>1.367926126135885</v>
       </c>
       <c r="G22">
-        <v>1.173699430902019</v>
+        <v>1.114387954744103</v>
       </c>
       <c r="H22">
-        <v>0.02157079971378262</v>
+        <v>0.01775275948439858</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6594547689953174</v>
+        <v>0.3486993222664694</v>
       </c>
       <c r="K22">
-        <v>0.3272495806416416</v>
+        <v>0.2048353325756835</v>
       </c>
       <c r="L22">
-        <v>0.4244601244816835</v>
+        <v>0.1060218411604978</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.07725266474175996</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.406346434163865</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1534,49 +1660,55 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.918878337081651</v>
+        <v>5.881286373210173</v>
       </c>
       <c r="C23">
-        <v>1.895715149222099</v>
+        <v>2.039193658590534</v>
       </c>
       <c r="D23">
-        <v>0.2902188087679463</v>
+        <v>0.3281335432112229</v>
       </c>
       <c r="E23">
-        <v>0.3162811716805223</v>
+        <v>0.3227738152289916</v>
       </c>
       <c r="F23">
-        <v>1.631327360259874</v>
+        <v>1.357448649549326</v>
       </c>
       <c r="G23">
-        <v>1.135607542034734</v>
+        <v>1.045739328840199</v>
       </c>
       <c r="H23">
-        <v>0.01899849989440128</v>
+        <v>0.01574264827431182</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6446200002725959</v>
+        <v>0.3999120224123516</v>
       </c>
       <c r="K23">
-        <v>0.3230554249147204</v>
+        <v>0.2131933680010221</v>
       </c>
       <c r="L23">
-        <v>0.4094365125485524</v>
+        <v>0.1110429623974234</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.0766348081993371</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3934662474730999</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1587,49 +1719,55 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.060068194801261</v>
+        <v>5.039866682151569</v>
       </c>
       <c r="C24">
-        <v>1.620265889370785</v>
+        <v>1.766563188928956</v>
       </c>
       <c r="D24">
-        <v>0.2507692443592191</v>
+        <v>0.2730147876995943</v>
       </c>
       <c r="E24">
-        <v>0.2729886629675349</v>
+        <v>0.2767464230485004</v>
       </c>
       <c r="F24">
-        <v>1.448653786988302</v>
+        <v>1.283854840044086</v>
       </c>
       <c r="G24">
-        <v>0.9972979814952936</v>
+        <v>0.8463679250220508</v>
       </c>
       <c r="H24">
-        <v>0.01064224532720343</v>
+        <v>0.009051000361715855</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5915057162780926</v>
+        <v>0.5377234124213572</v>
       </c>
       <c r="K24">
-        <v>0.3102551960123705</v>
+        <v>0.2365004521239307</v>
       </c>
       <c r="L24">
-        <v>0.3531971134606238</v>
+        <v>0.1278179576128444</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.07124402894550386</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3435714279818143</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1640,49 +1778,55 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.142274476261548</v>
+        <v>4.134627609195206</v>
       </c>
       <c r="C25">
-        <v>1.326082520410466</v>
+        <v>1.438386186011257</v>
       </c>
       <c r="D25">
-        <v>0.2087490445800313</v>
+        <v>0.2259717184308414</v>
       </c>
       <c r="E25">
-        <v>0.2270354580821987</v>
+        <v>0.230642993838309</v>
       </c>
       <c r="F25">
-        <v>1.262564974527564</v>
+        <v>1.13969257910226</v>
       </c>
       <c r="G25">
-        <v>0.8589239982956371</v>
+        <v>0.7328402372729812</v>
       </c>
       <c r="H25">
-        <v>0.004177890205327328</v>
+        <v>0.00361301554416138</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5398897969292591</v>
+        <v>0.5151364111163872</v>
       </c>
       <c r="K25">
-        <v>0.3021876715370411</v>
+        <v>0.2436304841900139</v>
       </c>
       <c r="L25">
-        <v>0.2936094991857772</v>
+        <v>0.1395284059091111</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.06031031372922158</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2875105030442739</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
